--- a/medicine/Enfance/Fernand_Hue/Fernand_Hue.xlsx
+++ b/medicine/Enfance/Fernand_Hue/Fernand_Hue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernand Hue, né le 23 août 1846 à Caen (Calvados) et mort en 1895, est un écrivain français, auteur de romans d'aventures et d'ouvrages de vulgarisation scientifique.
 Il participa à la guerre franco-prussienne en tant que brigadier au 1er régiment de chasseurs d'Afrique.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Histoire du 1er régiment de Chasseurs d'Afrique, H. Lecène et H. Oudin Éditeurs, Paris, 1889
 Aventures de cinq chasseurs d'Afrique au Mexique, Les Bouchers Bleus, grand roman historique, illustrations de Gil Baer, Société  Française d'Imprimerie et de Librairie.
